--- a/news.xlsx
+++ b/news.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="news_agent" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -651,6 +651,65 @@
   </si>
   <si>
     <t>news_program_image_4.png</t>
+  </si>
+  <si>
+    <t>移民加拿大最快通道-魁北克省PEQ移民项目解读</t>
+  </si>
+  <si>
+    <t>快速移民爽翻天</t>
+  </si>
+  <si>
+    <t>PEQ，如果你关注过加拿大的话，或者你关注过加拿大移民或者留学，肯定听过它。但是很多人只知道PEQ是魁省的一个留学课程、一个移民项目，对其而并没有深刻的理解到实质，当然也不太清楚什么样的人适合PEQ，什么样的人又不适合PEQ咯。
+那么，今天就给大家介绍一下PEQ。
+PEQ是加拿大魁北克省独有的一个留学移民项目。魁省政府从2010年开始为了缓解人才短缺的情况，加大移民力度，所以就开始实行PEQ了。PEQ的全称是Programme de l'experience quebecoise。
+该计划的目的是让在魁省工作的外地人才和在魁省读书的留学生获得永居权，可以留下来在魁省工作。
+对于高中毕业生来说，可以申请魁省的公立学院来符合的PEQ移民要求，毕业后可以拿到文凭，也可以找到工作，同时还可以获得枫叶卡。
+申请魁省的公立学院的流程和加拿大其他省份的学院基本上一样，签证通过率非常高，只要高中的成绩符合学校的要求，和40万元人民币的担保金就可以。但是魁北克留学的签证比其他省份要更多一些程序，需要格外注意。在学院毕业以后，符合要求的毕业生，是一定可以拿到枫叶卡的。
+选择公立学校申请PEQ的主要优势，除了移民以外，还有以下几点：
+首先，不但可以适应语言环境，而且还可以拿到文凭，对以后继续学习非常有帮助。有很多学生在拿到身份之后，选择继续读本科、硕士，可以节省很多学费，而且无论是语言还是学习方法都已经适应了。
+其次，课程简单，压力小。刚到加拿大时，肯定要适应一段时间语言，如果学习难度大的课程，很可能导致学生跟不上。但是，邵老师要提醒你的是，千万不要以为课程简单，你就可以很快的学会，即使你真的学会了，也不要逃课，不要不交作业，这很可能会对你以后的毕业和移民产生很坏的影响。
+最后，成本低，收益高，时间短，成功率高。PEQ比起其他移民项目来说，既省时又省力，更重要的是省钱。移民加拿大不一定非要花费几百万甚至上千万的。而且最多两年的时间，就可以拿到身份，速度是很快的。
+PEQ项目非常适合高中毕业生，如果是中专、技校毕业的学生也是有机会可以申请的。但是已经具有大专以上学历的学生，或者高中毕业很多年的学生，想申请PEQ还是应该多向专业人士咨询的。</t>
+  </si>
+  <si>
+    <t>news_immigration_image_4.jpg</t>
+  </si>
+  <si>
+    <t>麦考林杂志权威排名：加拿大工程专业Top 10！</t>
+  </si>
+  <si>
+    <t>权威麦考林</t>
+  </si>
+  <si>
+    <t>加拿大最权威杂志麦考林杂志通过学校的学术水平和问卷调查，对加拿大的10个课程领域进行排名。今天要说的是工程学的Top10，想去加拿大读工程学的童鞋们快来看看，你想去哪所呢？
+1.  多伦多大学
+多伦多大学，位于华人聚集的安省多伦多，是加拿大三大名校之一，在学术研究方面领先，是加拿大的研究生教育中心。
+2. 滑铁卢大学
+滑铁卢大学位于安省滑铁卢，学校以Co-op实践合作教学出名，工程学院教学水平居世界前列。工程学院中，以软件工程、电子工程和机械工程最为出名。
+3. 英属哥伦比亚大学UBC
+英属哥伦比亚大学，位于加拿大西海岸BC省温哥华，校园也被称为加拿大最美的校园之一，吸引了众多国内的留学生。UBC以科学研究和研究生教育出名。
+4. 阿尔伯塔大学
+学校位于阿尔伯塔省省会城市埃德蒙顿，是加拿大最好的研究性大学之一。阿尔伯塔大学的实验室设施和教学资源也是位于加拿大前列，工程学中，以石油工程最为出名。
+5. 麦吉尔大学
+麦吉尔大学，加拿大的三大名校之一，在医博类综合排名中排名第一，也是加拿大诺贝尔奖和罗德学者最多的大学。
+6. 渥太华大学
+渥太华大学是一所多样化的英法双语大学，位于加拿大首府渥太华，也是加拿大最古老的大学之一。学校共有250多个本科课程和200多个研究生课程，工程学院是加拿大最优秀的工程学院之一。
+7. 皇后大学
+皇后大学位于安省，安大略湖畔，学校有很多罗马式和新哥特式建筑。工程学院的工程物理专业非常有名，另外，学校的学生满意度也是排名靠前。
+8. 蒙特利尔大学
+蒙特利尔大学位于北美最浪漫的城市蒙特利尔，建校已经有130多年的历史。学校的工学院是加拿大著名的工程学院，科研资金丰厚，规模大，加拿大高颜值总理Justin Trudeau也是学校工程学院的毕业生呢~
+9. 麦克马斯特大学
+麦克马斯特大学位于安省旅游城市汉密尔顿，距离多伦多和著名的尼亚加拉大瀑布都只有一个小时车程。学校的工程专业在整个北美具有很高的声誉和影响力，工程学院也会有Co-op项目，学校也被称为是加拿大的MIT。
+10. 卡尔加里大学（并列）
+卡尔加里大学位于阿尔伯塔省，位于加拿大的能源之都卡尔加里，所以拥有的就业机会会非常多。卡尔加里大学注重课程时间，工程专业会有4-8周的带薪实习。
+10. 维多利亚大学（并列）
+位于加拿大西海岸BC省首府维多利亚，学校10分钟步行就能到海边，学校周围还有山脉、森林等等，是一座绿地非常多的校园。这里有加拿大最温和的气候，春天的景色也是非常美，是一座非常适宜留学的校园。</t>
+  </si>
+  <si>
+    <t>news_program_image_5.png</t>
+  </si>
+  <si>
+    <t>2015-12-10</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -1456,18 +1515,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1595,17 +1654,52 @@
 正因为枫叶卡具有如此之高的含金量，所以加拿大一直都是传统的热门移民地，吸引着世界人民来此定居生活。','news_immigration_image_3.jpg'),</v>
       </c>
     </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE("(",A5,",'",B5,"','",C5,"','",D5,"','",E5,"','",F5,"')",",")</f>
+        <v>(1000004,'2015-12-09','移民加拿大最快通道-魁北克省PEQ移民项目解读','快速移民爽翻天','PEQ，如果你关注过加拿大的话，或者你关注过加拿大移民或者留学，肯定听过它。但是很多人只知道PEQ是魁省的一个留学课程、一个移民项目，对其而并没有深刻的理解到实质，当然也不太清楚什么样的人适合PEQ，什么样的人又不适合PEQ咯。
+那么，今天就给大家介绍一下PEQ。
+PEQ是加拿大魁北克省独有的一个留学移民项目。魁省政府从2010年开始为了缓解人才短缺的情况，加大移民力度，所以就开始实行PEQ了。PEQ的全称是Programme de l'experience quebecoise。
+该计划的目的是让在魁省工作的外地人才和在魁省读书的留学生获得永居权，可以留下来在魁省工作。
+对于高中毕业生来说，可以申请魁省的公立学院来符合的PEQ移民要求，毕业后可以拿到文凭，也可以找到工作，同时还可以获得枫叶卡。
+申请魁省的公立学院的流程和加拿大其他省份的学院基本上一样，签证通过率非常高，只要高中的成绩符合学校的要求，和40万元人民币的担保金就可以。但是魁北克留学的签证比其他省份要更多一些程序，需要格外注意。在学院毕业以后，符合要求的毕业生，是一定可以拿到枫叶卡的。
+选择公立学校申请PEQ的主要优势，除了移民以外，还有以下几点：
+首先，不但可以适应语言环境，而且还可以拿到文凭，对以后继续学习非常有帮助。有很多学生在拿到身份之后，选择继续读本科、硕士，可以节省很多学费，而且无论是语言还是学习方法都已经适应了。
+其次，课程简单，压力小。刚到加拿大时，肯定要适应一段时间语言，如果学习难度大的课程，很可能导致学生跟不上。但是，邵老师要提醒你的是，千万不要以为课程简单，你就可以很快的学会，即使你真的学会了，也不要逃课，不要不交作业，这很可能会对你以后的毕业和移民产生很坏的影响。
+最后，成本低，收益高，时间短，成功率高。PEQ比起其他移民项目来说，既省时又省力，更重要的是省钱。移民加拿大不一定非要花费几百万甚至上千万的。而且最多两年的时间，就可以拿到身份，速度是很快的。
+PEQ项目非常适合高中毕业生，如果是中专、技校毕业的学生也是有机会可以申请的。但是已经具有大专以上学历的学生，或者高中毕业很多年的学生，想申请PEQ还是应该多向专业人士咨询的。','news_immigration_image_4.jpg'),</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,9 +1707,9 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1782,7 +1876,7 @@
         <v>56</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5" si="1">CONCATENATE("(",A5,",'",B5,"','",C5,"','",D5,"','",E5,"','",F5,"')",",")</f>
+        <f t="shared" ref="H5:H6" si="1">CONCATENATE("(",A5,",'",B5,"','",C5,"','",D5,"','",E5,"','",F5,"')",",")</f>
         <v>(1000004,'2015-11-30','加拿大留学选课技巧你都造了吗','加拿大留学中心','在加拿大留学选课也是一门学问，选课也是需要技巧的。 那么加拿大留学选课技巧有哪些？
 一：选课由简及难
 在所有的课程中，总会存在简单课和难度课，新生在选课时，应结合自身实际，注意所选课程的难易度，分清课程难度和主次课程。建议从简单课选起，减少压力，增强学习的自信心。
@@ -1802,6 +1896,52 @@
 运气好的话，有些课程可以等在开学的时候拿一张加课单给教授签字，这样可以在当下学期注册;而运气不好或者某些课程有特殊规定的话，你就只能在waitinglist上乖乖等候着了。接着就是学费的截止期限，这个需要关注，如果在截止期限后交学费，学校会根据拖延的时间算利息。
 说到底，学生在加拿大留学要知道加拿大学校选课的时间表、流程、注意事项，确保自己能够准确、迅速的选课。
 在了解了加拿大选课系统后，大家需要调整好时间，在有限的时间和课程中制定合理的计划，在时间允许的情况下，大家还可以辅修专业，积极参加学校的一些课外活动，丰富自己的校园生活。','news_program_image_4.png'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>(1000005,'2015-12-10','麦考林杂志权威排名：加拿大工程专业Top 10！','权威麦考林','加拿大最权威杂志麦考林杂志通过学校的学术水平和问卷调查，对加拿大的10个课程领域进行排名。今天要说的是工程学的Top10，想去加拿大读工程学的童鞋们快来看看，你想去哪所呢？
+1.  多伦多大学
+多伦多大学，位于华人聚集的安省多伦多，是加拿大三大名校之一，在学术研究方面领先，是加拿大的研究生教育中心。
+2. 滑铁卢大学
+滑铁卢大学位于安省滑铁卢，学校以Co-op实践合作教学出名，工程学院教学水平居世界前列。工程学院中，以软件工程、电子工程和机械工程最为出名。
+3. 英属哥伦比亚大学UBC
+英属哥伦比亚大学，位于加拿大西海岸BC省温哥华，校园也被称为加拿大最美的校园之一，吸引了众多国内的留学生。UBC以科学研究和研究生教育出名。
+4. 阿尔伯塔大学
+学校位于阿尔伯塔省省会城市埃德蒙顿，是加拿大最好的研究性大学之一。阿尔伯塔大学的实验室设施和教学资源也是位于加拿大前列，工程学中，以石油工程最为出名。
+5. 麦吉尔大学
+麦吉尔大学，加拿大的三大名校之一，在医博类综合排名中排名第一，也是加拿大诺贝尔奖和罗德学者最多的大学。
+6. 渥太华大学
+渥太华大学是一所多样化的英法双语大学，位于加拿大首府渥太华，也是加拿大最古老的大学之一。学校共有250多个本科课程和200多个研究生课程，工程学院是加拿大最优秀的工程学院之一。
+7. 皇后大学
+皇后大学位于安省，安大略湖畔，学校有很多罗马式和新哥特式建筑。工程学院的工程物理专业非常有名，另外，学校的学生满意度也是排名靠前。
+8. 蒙特利尔大学
+蒙特利尔大学位于北美最浪漫的城市蒙特利尔，建校已经有130多年的历史。学校的工学院是加拿大著名的工程学院，科研资金丰厚，规模大，加拿大高颜值总理Justin Trudeau也是学校工程学院的毕业生呢~
+9. 麦克马斯特大学
+麦克马斯特大学位于安省旅游城市汉密尔顿，距离多伦多和著名的尼亚加拉大瀑布都只有一个小时车程。学校的工程专业在整个北美具有很高的声誉和影响力，工程学院也会有Co-op项目，学校也被称为是加拿大的MIT。
+10. 卡尔加里大学（并列）
+卡尔加里大学位于阿尔伯塔省，位于加拿大的能源之都卡尔加里，所以拥有的就业机会会非常多。卡尔加里大学注重课程时间，工程专业会有4-8周的带薪实习。
+10. 维多利亚大学（并列）
+位于加拿大西海岸BC省首府维多利亚，学校10分钟步行就能到海边，学校周围还有山脉、森林等等，是一座绿地非常多的校园。这里有加拿大最温和的气候，春天的景色也是非常美，是一座非常适宜留学的校园。','news_program_image_5.png'),</v>
       </c>
     </row>
   </sheetData>

--- a/news.xlsx
+++ b/news.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="news_agent" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -710,6 +710,45 @@
   </si>
   <si>
     <t>2015-12-10</t>
+  </si>
+  <si>
+    <t>2015-12-04</t>
+  </si>
+  <si>
+    <t>加拿大大学是个啥样？八一八对紫色情有独钟的西安大略大学！</t>
+  </si>
+  <si>
+    <t>习安大略大学</t>
+  </si>
+  <si>
+    <t>细数加拿大的各大名校里，西安大略大学（简称UWO）的校风可以说是非常具有特色。位于加拿大安大略省的伦敦市，学生组成主要都是相同人种（盎格鲁撒克逊人的后裔，富有，大多数是白人），进入UWO学习的学生大部分来自于为数不多的预备学校和经济条件比较好的家庭，他们可能已经彼此见过面，社交上也有所接触！
+校园：
+1,120英亩的校园贯穿整个泰晤士河流域，这里原来是是一个高尔夫球乡村俱乐部，UWO因此得名 “乡村俱乐部”，吸引了来自条件优越家庭的学生和国际生，所以这个别名也沿用至今。
+一路驾车可以欣赏沿途的美景，从校园高高的大门，进入校园里的乡村俱乐部，然后会经过钟楼，这里的钟每个整点都会被准时敲响，接着你会看见Michael’s and The Wave美食餐厅，UC Hill的山顶上同学们可以在阳光里晒晒日光浴或者看看书，可以说UWO的校园是学生文化和活动的中心。
+法律图书馆里斑驳的玻璃窗、不远处的天文台观测塔、常春藤蔓延的哥特式石灰岩建筑共同组成了UWO的校园, 这片田园牧歌般的土地不仅被冠以“乡村俱乐部”的称号，更是常常会让人联想到充满神秘感的霍格沃茨魔法学校。
+UWO的校园面积是公认的加拿大境内排名前几的，大名鼎鼎的毅伟商学院，舒克利医学院，法学研究院和教育研究院都分布其中，连同几处较小的本科校区，UWO的跨学科研究在King’s, Brescia 和Huron等地区都是非常有名的！
+学校里的运动场地和配套基础设施建设地非常完善，壁球场、橄榄球场地、足球场、大型露天足球场、冬季会加盖上穹顶的室内网球场通通都是有的，每个独栋公寓楼都会配备沙滩排球场地。如果这些还不够，学校里还为爱好运动的小伙伴们准备了冰球场，Thompson Recreation and Athletic Centre（汤普森娱乐和体育中心），拥有奥运会规格泳池的state-of-the-art athletic centre（现代体育中心），达到NHL标准的冰球场，篮球场还有健身器材等等，真的是非常注重学生们的运动爱好！
+特殊的地理位置，UWO的校园孕育了一种特殊的校园文化，不同于熙熙攘攘的Kingston 这样的城镇(皇后大学所在地)也有别于Montreal (麦吉尔大学所在地)这样的大都市，UWO被蔓生的草原环绕着，没有那么多的喧嚣，如诗如画，也正是这样，一种希腊式生活方式为主导的生活环境渐渐形成，似乎这里充斥着一种淡然处之的态度，不会过多的受到外界纷繁复杂的干扰。
+社交：
+87.5%的本科入学率，众多著名教授和学者，连续十年被环球游报的大学报告评选为学生体验第一名，but不得不提的是UWO也是加拿大著名的party school 哦！
+UWO是David Letterman 评选出的值得大醉一场的地方Top10，也连续多年名列Playboy party 榜单Top5.
+Bar night 开始于每周三，然后一直持续到周日。通常，周日，周一周二是同学们“休息（宿醉）”的时间。不止家庭聚会，很多犹太学生也会聚集到伦敦市中心的Richmond大街，只有十五分钟的行程，但是这里的俱乐部、酒吧排了整整一条街，一家挨着一家！
+伦敦有个很大的电子音乐现场，曾举办过Deadmau5的Western’s Homecoming（校友会）活动，Avicii的Frosh week，Steve Aoki、Zeds Dead、Chris Lake、Dada Life、Michael Woods、 Wolfgang Gartner、Hardwell、 Fedde Le Grande，以及很多国际上其他非常有名的DJ都曾经来过这个充满艺术气息的校园，爱好电子音乐的童鞋们在这里应该不会孤单！
+O-Week（迎新周），校友会，Halloween周末，Frost Week和St. Patrick’s Day等重大节日期间也是UWO校园医院比较忙的时候！玩的太high了，也不要忘记照顾好自己的身体哦！
+精神：
+喧闹、好斗、随性这三个词形容UWO学生的生活一点不为过，曾经在这里生活过的人也会有这种傲娇精神！O-Week期间的入校时节，精力变得特别充沛的大二生们会主动帮助新生入住新宿舍，唱着圣歌或校歌有说有笑的好不热闹呢！O-Week的开幕式和闭幕式是学生宿舍或者院系最值得纪念的庆祝活动！
+O-Week过后不久就是homecoming（校友日）的庆祝了。不光全校同学从头到脚全部都穿着紫色服饰，还有Mustang队服，就连整座城市和商铺都是这样！Morning Keggers（上午的啤酒聚会）会在犹太学生社区一场接一场的举办，还会有一些比较疯的活动什么爬爬房顶了到大街上接力了，哦，忘了说这些活动都是上午十点以前，还能享受到美味的紫色薄煎饼。中午时分，传统的Homecoming足球比赛就开始了，体育场里穿着白色和紫色相间的Mustang队服的同学们，卖力的为他们呐喊加油！
+UWO的校园精神常常是跟传统联系在一起的，上百年的历史和荣耀已经深深浸入了这所学校里的每一处石灰岩塔楼，每个人的心中都充满着团结精神和归属感！
+希腊式的生活方式：
+UWO的很多俱乐部和社团尤其是兄弟会和女生联谊会这些学生组织，他们鼓励以兄弟情义为重，对成员保持忠诚。这些参与者把他们这种和希腊有关的信仰以某种形式佩戴在衣物上，像标记、勋章、别针、帽衫还有领结等。
+学校这么大，要说所有人都热衷于希腊式的生活方式也很难，大部分是这样的。对很多的女生来说，每个女生联谊会社团门外匆忙中排着队，这就是她们大一一整年的写照。对很多男生来说，在地狱周感受死亡临近是什么滋味，这就是他们在大学生活难忘的第一年！
+穿衣风格：
+UWO的校园简直就是Ralph Lauren、Sperry Top-Siders、Tory Burch、Lilly Pulitzer、Hunter等品牌的秀场，如果谁不小心非考试周的时候还穿个运动服走出宿舍的话，可能会尴尬的想要狗带！经常看到精致的高跟鞋出入课堂，操场和钟楼也能看见带希腊字母的连帽衫。学生中心的星巴克被认为是学校里那些只用iPhone的日本学生们高兴才去喝一杯的地方（但是实话实说，其实大家都在逐渐甩开黑莓。。。）
+紫色是最重要的颜色：从校书店贩售的白色紫色相间设计的橄榄球运动衫到刺绣着UWO大学校名的柔软针织衫，穿着紫色服饰对在校生来说是一件值得骄傲的事！
+那么，童鞋们还想了解哪些加拿大的大学呢？</t>
+  </si>
+  <si>
+    <t>news_university_image_2.png</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1951,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,6 +2001,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1989,7 +2029,7 @@
       <c r="A2">
         <v>1000001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -1998,14 +2038,14 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2" si="0">CONCATENATE("(",A2,",'",B2,"','",C2,"','",D2,"','",E2,"','",F2,"')",",")</f>
+        <f t="shared" ref="H2:H3" si="0">CONCATENATE("(",A2,",'",B2,"','",C2,"','",D2,"','",E2,"','",F2,"')",",")</f>
         <v>(1000001,'2015-12-03','“麦克林”大学排行最新出炉 麦吉尔、西门菲沙、北卑诗大学分别为三类大学榜首','红枫林传媒','一年一度的麦克林杂志“加国大学排行榜”最新排名出炉了，正在选择学校的家长和学子们快点看过来吧~（本报发行区域的大学均用黑体标出）
 　　医学类前十大学：
 　　１、麦吉尔大学（McGill）
@@ -2043,8 +2083,57 @@
 　　《麦克林》杂志目前主要报道加拿大本国主流文化，涵盖热点政治话题、商业故事、教育、健康、科技、环保等方面，该杂志每年11月刊登麦克林大学排行榜（Maclean's University Rankings）。该杂志的大学排名主要分为医博类(Medical Doctoral）、综合类（Comprehensive）和基础本科类（Primarily Undergraduate）三类，并参考学生、教职员、资源、学生支持及声誉等要素和标准进行排名。但2006至2007年间安大略省部分研究型大学宣布抵制麦克琳杂志排名，其中，西安大略大学自2007年起同约克大学等12所加拿大顶尖大学联合宣布退出《麦克林杂志》排名，并对外宣布“不参与任何排名，学校不对外提供任何资料数据”。因此所有排名评估依据均来自于网络数据，仅供大家参考。','news_university_image_1.png'),</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>(1000002,'2015-12-04','加拿大大学是个啥样？八一八对紫色情有独钟的西安大略大学！','习安大略大学','细数加拿大的各大名校里，西安大略大学（简称UWO）的校风可以说是非常具有特色。位于加拿大安大略省的伦敦市，学生组成主要都是相同人种（盎格鲁撒克逊人的后裔，富有，大多数是白人），进入UWO学习的学生大部分来自于为数不多的预备学校和经济条件比较好的家庭，他们可能已经彼此见过面，社交上也有所接触！
+校园：
+1,120英亩的校园贯穿整个泰晤士河流域，这里原来是是一个高尔夫球乡村俱乐部，UWO因此得名 “乡村俱乐部”，吸引了来自条件优越家庭的学生和国际生，所以这个别名也沿用至今。
+一路驾车可以欣赏沿途的美景，从校园高高的大门，进入校园里的乡村俱乐部，然后会经过钟楼，这里的钟每个整点都会被准时敲响，接着你会看见Michael’s and The Wave美食餐厅，UC Hill的山顶上同学们可以在阳光里晒晒日光浴或者看看书，可以说UWO的校园是学生文化和活动的中心。
+法律图书馆里斑驳的玻璃窗、不远处的天文台观测塔、常春藤蔓延的哥特式石灰岩建筑共同组成了UWO的校园, 这片田园牧歌般的土地不仅被冠以“乡村俱乐部”的称号，更是常常会让人联想到充满神秘感的霍格沃茨魔法学校。
+UWO的校园面积是公认的加拿大境内排名前几的，大名鼎鼎的毅伟商学院，舒克利医学院，法学研究院和教育研究院都分布其中，连同几处较小的本科校区，UWO的跨学科研究在King’s, Brescia 和Huron等地区都是非常有名的！
+学校里的运动场地和配套基础设施建设地非常完善，壁球场、橄榄球场地、足球场、大型露天足球场、冬季会加盖上穹顶的室内网球场通通都是有的，每个独栋公寓楼都会配备沙滩排球场地。如果这些还不够，学校里还为爱好运动的小伙伴们准备了冰球场，Thompson Recreation and Athletic Centre（汤普森娱乐和体育中心），拥有奥运会规格泳池的state-of-the-art athletic centre（现代体育中心），达到NHL标准的冰球场，篮球场还有健身器材等等，真的是非常注重学生们的运动爱好！
+特殊的地理位置，UWO的校园孕育了一种特殊的校园文化，不同于熙熙攘攘的Kingston 这样的城镇(皇后大学所在地)也有别于Montreal (麦吉尔大学所在地)这样的大都市，UWO被蔓生的草原环绕着，没有那么多的喧嚣，如诗如画，也正是这样，一种希腊式生活方式为主导的生活环境渐渐形成，似乎这里充斥着一种淡然处之的态度，不会过多的受到外界纷繁复杂的干扰。
+社交：
+87.5%的本科入学率，众多著名教授和学者，连续十年被环球游报的大学报告评选为学生体验第一名，but不得不提的是UWO也是加拿大著名的party school 哦！
+UWO是David Letterman 评选出的值得大醉一场的地方Top10，也连续多年名列Playboy party 榜单Top5.
+Bar night 开始于每周三，然后一直持续到周日。通常，周日，周一周二是同学们“休息（宿醉）”的时间。不止家庭聚会，很多犹太学生也会聚集到伦敦市中心的Richmond大街，只有十五分钟的行程，但是这里的俱乐部、酒吧排了整整一条街，一家挨着一家！
+伦敦有个很大的电子音乐现场，曾举办过Deadmau5的Western’s Homecoming（校友会）活动，Avicii的Frosh week，Steve Aoki、Zeds Dead、Chris Lake、Dada Life、Michael Woods、 Wolfgang Gartner、Hardwell、 Fedde Le Grande，以及很多国际上其他非常有名的DJ都曾经来过这个充满艺术气息的校园，爱好电子音乐的童鞋们在这里应该不会孤单！
+O-Week（迎新周），校友会，Halloween周末，Frost Week和St. Patrick’s Day等重大节日期间也是UWO校园医院比较忙的时候！玩的太high了，也不要忘记照顾好自己的身体哦！
+精神：
+喧闹、好斗、随性这三个词形容UWO学生的生活一点不为过，曾经在这里生活过的人也会有这种傲娇精神！O-Week期间的入校时节，精力变得特别充沛的大二生们会主动帮助新生入住新宿舍，唱着圣歌或校歌有说有笑的好不热闹呢！O-Week的开幕式和闭幕式是学生宿舍或者院系最值得纪念的庆祝活动！
+O-Week过后不久就是homecoming（校友日）的庆祝了。不光全校同学从头到脚全部都穿着紫色服饰，还有Mustang队服，就连整座城市和商铺都是这样！Morning Keggers（上午的啤酒聚会）会在犹太学生社区一场接一场的举办，还会有一些比较疯的活动什么爬爬房顶了到大街上接力了，哦，忘了说这些活动都是上午十点以前，还能享受到美味的紫色薄煎饼。中午时分，传统的Homecoming足球比赛就开始了，体育场里穿着白色和紫色相间的Mustang队服的同学们，卖力的为他们呐喊加油！
+UWO的校园精神常常是跟传统联系在一起的，上百年的历史和荣耀已经深深浸入了这所学校里的每一处石灰岩塔楼，每个人的心中都充满着团结精神和归属感！
+希腊式的生活方式：
+UWO的很多俱乐部和社团尤其是兄弟会和女生联谊会这些学生组织，他们鼓励以兄弟情义为重，对成员保持忠诚。这些参与者把他们这种和希腊有关的信仰以某种形式佩戴在衣物上，像标记、勋章、别针、帽衫还有领结等。
+学校这么大，要说所有人都热衷于希腊式的生活方式也很难，大部分是这样的。对很多的女生来说，每个女生联谊会社团门外匆忙中排着队，这就是她们大一一整年的写照。对很多男生来说，在地狱周感受死亡临近是什么滋味，这就是他们在大学生活难忘的第一年！
+穿衣风格：
+UWO的校园简直就是Ralph Lauren、Sperry Top-Siders、Tory Burch、Lilly Pulitzer、Hunter等品牌的秀场，如果谁不小心非考试周的时候还穿个运动服走出宿舍的话，可能会尴尬的想要狗带！经常看到精致的高跟鞋出入课堂，操场和钟楼也能看见带希腊字母的连帽衫。学生中心的星巴克被认为是学校里那些只用iPhone的日本学生们高兴才去喝一杯的地方（但是实话实说，其实大家都在逐渐甩开黑莓。。。）
+紫色是最重要的颜色：从校书店贩售的白色紫色相间设计的橄榄球运动衫到刺绣着UWO大学校名的柔软针织衫，穿着紫色服饰对在校生来说是一件值得骄傲的事！
+那么，童鞋们还想了解哪些加拿大的大学呢？','news_university_image_2.png'),</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
